--- a/docs/assets/disciplinas/LOM3258.xlsx
+++ b/docs/assets/disciplinas/LOM3258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao aluno ingressante de Engenharia Física os conhecimentos práticos de eletrônica e computação física com microcontrolador Arduino visando sua aplicação em projetos científicos e tecnológicos.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução ao Arduino. Conceitos de eletrônica analógica e digital. Montagem de circuitos eletrônicos básicos. Programação e controle de circuitos eletrônicos em linguagem C. Aplicação e desenvolvimento de projetos baseados em Arduino.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,20 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução ao microcontrolador Arduino: histórico, tipos e recursos. Oficina prática: instalação e configuração do IDE Arduino.
-Conceitos básicos de eletrônica: funcionamento da protoboard, componentes e instrumentos eletrônicos, medições com multímetro e osciloscópio. Grandezas elétricas: resistência, tensão e corrente. Oficina: montagem de circuitos eletrônicos.
-Introdução à linguagem de programação Wiring baseada em C/C++. Tipos de dados, sintaxe básica, controle de fluxo, funções da biblioteca padrão. Principais bibliotecas
-Entradas e saídas do Arduino. Sinais analógicos e digitais.
-Controle de dispositivos utilizando PWM.
-Eletrônica analógica. Conversores analógico-digitais do Arduino. 
-Oficina: leitura de dados de sensores. Comunicação serial/USB com o PC. Utilização do Monitor Serial da IDE.
-Controle de motor cc e servomotor com PWM. Controle de potência com relé e SSR.
-Tópicos avançados: comunicação Ethernet com Arduino. Comunicação sem fio via Bluetooth.
-Armazenamento de dados utilizando a EEPROM do ATMega328 e cartão de memória SD.
-Desenvolvimento de software de qualidade.
-Desenvolvimento de projetos utilizando microcontrolador Arduino.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -117,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, práticas e de realização de projetos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média das notas de trabalhos, atividades e relatório de projeto.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características da disciplina não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BANZI, M. Primeiros passos com o Arduino, São Paulo: O´Reilly Novatec, 2010.
-McROBERTS, M. Arduino Básico, São Paulo: Novatec, 2011.
-MONK, S. Programação com Arduino, Porto Alegre: Bookman Editora, 2013.
-MONK, S. Programação com Arduino II, Porto Alegre: Bookman Editora, 2015.
-BLUM, J. Exploring Arduino, New York: John Wiley, 2013.</t>
   </si>
 </sst>
 </file>
@@ -495,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3258.xlsx
+++ b/docs/assets/disciplinas/LOM3258.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-1</t>
+    <t>EF-3</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOM3258.xlsx
+++ b/docs/assets/disciplinas/LOM3258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2016</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To provide the incoming student of Physical Engineering with practical knowledge of electronics and physical computing with Arduino microcontroller aiming its application in scientific and technological projects</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Introduction to Arduino. Analog and digital electronics concepts. Assembly of basic electronic circuits. Programming and control of electronic circuits in C language. Application and development of projects based on Arduino.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Introduction to the Arduino microcontroller: history, types and resources. Practical workshop: installation and configuration of the Arduino IDE.Basic concepts of electronics: operation of the breadboard, electronic components and instruments, measurements with a multimeter and oscilloscope. Electrical quantities: resistance, voltage and current. Workshop: assembly of electronic circuits.Introduction to the Wiring programming language based on C/C++. Data types, basic syntax, flow control, standard library functions. main librariesArduino Inputs and Outputs. Analog and digital signals.Device control using PWM.Analog electronics. Arduino analog-to-digital converters.Workshop: Reading sensor data. Serial/USB communication with PC. Using the IDE's Serial Monitor.DC motor and servo motor control with PWM. Power control with relay and SSR.Advanced topics: Ethernet communication with Arduino. Wireless communication via Bluetooth.Data storage using ATMega328 EEPROM and SD memory card.Quality software development.Development of projects using Arduino microcontroller.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -590,31 +599,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -625,17 +646,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -646,35 +673,35 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3258.xlsx
+++ b/docs/assets/disciplinas/LOM3258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao aluno ingressante de Engenharia Física os conhecimentos práticos de eletrônica e computação física com microcontrolador Arduino visando sua aplicação em projetos científicos e tecnológicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To provide the incoming student of Physical Engineering with practical knowledge of electronics and physical computing with Arduino microcontroller aiming its application in scientific and technological projects</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To provide the incoming student of Physical Engineering with practical knowledge of electronics and physical computing with Arduino microcontroller aiming its application in scientific and technological projects</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução ao Arduino. Conceitos de eletrônica analógica e digital. Montagem de circuitos eletrônicos básicos. Programação e controle de circuitos eletrônicos em linguagem C. Aplicação e desenvolvimento de projetos baseados em Arduino.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução ao microcontrolador Arduino: histórico, tipos e recursos. Oficina prática: instalação e configuração do IDE Arduino.Conceitos básicos de eletrônica: funcionamento da protoboard, componentes e instrumentos eletrônicos, medições com multímetro e osciloscópio. Grandezas elétricas: resistência, tensão e corrente. Oficina: montagem de circuitos eletrônicos.Introdução à linguagem de programação Wiring baseada em C/C++. Tipos de dados, sintaxe básica, controle de fluxo, funções da biblioteca padrão. Principais bibliotecasEntradas e saídas do Arduino. Sinais analógicos e digitais.Controle de dispositivos utilizando PWM.Eletrônica analógica. Conversores analógico-digitais do Arduino. Oficina: leitura de dados de sensores. Comunicação serial/USB com o PC. Utilização do Monitor Serial da IDE.Controle de motor cc e servomotor com PWM. Controle de potência com relé e SSR.Tópicos avançados: comunicação Ethernet com Arduino. Comunicação sem fio via Bluetooth.Armazenamento de dados utilizando a EEPROM do ATMega328 e cartão de memória SD.Desenvolvimento de software de qualidade.Desenvolvimento de projetos utilizando microcontrolador Arduino.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, práticas e de realização de projetos.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, práticas e de realização de projetos.</t>
+    <t>Média das notas de trabalhos, atividades e relatório de projeto.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média das notas de trabalhos, atividades e relatório de projeto.</t>
+    <t>Devido às características da disciplina não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características da disciplina não será oferecida recuperação.</t>
+    <t>BANZI, M. Primeiros passos com o Arduino, São Paulo: O´Reilly Novatec, 2010.
+McROBERTS, M. Arduino Básico, São Paulo: Novatec, 2011.
+MONK, S. Programação com Arduino, Porto Alegre: Bookman Editora, 2013.
+MONK, S. Programação com Arduino II, Porto Alegre: Bookman Editora, 2015.
+BLUM, J. Exploring Arduino, New York: John Wiley, 2013.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +624,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +665,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
